--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ccr10</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1127026666666667</v>
+        <v>0.06493566666666667</v>
       </c>
       <c r="H2">
-        <v>0.338108</v>
+        <v>0.194807</v>
       </c>
       <c r="I2">
-        <v>0.07609660010866186</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="J2">
-        <v>0.07609660010866184</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N2">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P2">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q2">
-        <v>0.02571784691200001</v>
+        <v>0.06875282325077779</v>
       </c>
       <c r="R2">
-        <v>0.231460622208</v>
+        <v>0.6187754092570001</v>
       </c>
       <c r="S2">
-        <v>0.009697722577317167</v>
+        <v>0.02738062375229506</v>
       </c>
       <c r="T2">
-        <v>0.009697722577317165</v>
+        <v>0.02738062375229506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1127026666666667</v>
+        <v>0.06493566666666667</v>
       </c>
       <c r="H3">
-        <v>0.338108</v>
+        <v>0.194807</v>
       </c>
       <c r="I3">
-        <v>0.07609660010866186</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="J3">
-        <v>0.07609660010866184</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +623,22 @@
         <v>3.010662</v>
       </c>
       <c r="O3">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P3">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q3">
-        <v>0.113103211944</v>
+        <v>0.06516644802600001</v>
       </c>
       <c r="R3">
-        <v>1.017928907496</v>
+        <v>0.586498032234</v>
       </c>
       <c r="S3">
-        <v>0.04264912128101313</v>
+        <v>0.0259523596313292</v>
       </c>
       <c r="T3">
-        <v>0.04264912128101313</v>
+        <v>0.02595235963132921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1127026666666667</v>
+        <v>0.06493566666666667</v>
       </c>
       <c r="H4">
-        <v>0.338108</v>
+        <v>0.194807</v>
       </c>
       <c r="I4">
-        <v>0.07609660010866186</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="J4">
-        <v>0.07609660010866184</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N4">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P4">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q4">
-        <v>0.06298309634800002</v>
+        <v>0.003178860626</v>
       </c>
       <c r="R4">
-        <v>0.5668478671320001</v>
+        <v>0.028609745634</v>
       </c>
       <c r="S4">
-        <v>0.02374975625033155</v>
+        <v>0.001265972546960193</v>
       </c>
       <c r="T4">
-        <v>0.02374975625033155</v>
+        <v>0.001265972546960193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +729,40 @@
         <v>3.044973</v>
       </c>
       <c r="I5">
-        <v>0.6853197579550688</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="J5">
-        <v>0.6853197579550687</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N5">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P5">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q5">
-        <v>0.231612826272</v>
+        <v>1.074655892613667</v>
       </c>
       <c r="R5">
-        <v>2.084515436448</v>
+        <v>9.671903033523002</v>
       </c>
       <c r="S5">
-        <v>0.0873368965224756</v>
+        <v>0.4279787689810794</v>
       </c>
       <c r="T5">
-        <v>0.08733689652247559</v>
+        <v>0.4279787689810795</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +791,10 @@
         <v>3.044973</v>
       </c>
       <c r="I6">
-        <v>0.6853197579550688</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="J6">
-        <v>0.6853197579550687</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +809,10 @@
         <v>3.010662</v>
       </c>
       <c r="O6">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P6">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q6">
         <v>1.018598278014</v>
@@ -818,10 +821,10 @@
         <v>9.167384502126</v>
       </c>
       <c r="S6">
-        <v>0.3840944987235156</v>
+        <v>0.4056539773400718</v>
       </c>
       <c r="T6">
-        <v>0.3840944987235155</v>
+        <v>0.4056539773400719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>3.044973</v>
       </c>
       <c r="I7">
-        <v>0.6853197579550688</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="J7">
-        <v>0.6853197579550687</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N7">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P7">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q7">
-        <v>0.5672206154130001</v>
+        <v>0.049687869414</v>
       </c>
       <c r="R7">
-        <v>5.104985538717</v>
+        <v>0.447190824726</v>
       </c>
       <c r="S7">
-        <v>0.2138883627090776</v>
+        <v>0.01978805804840186</v>
       </c>
       <c r="T7">
-        <v>0.2138883627090776</v>
+        <v>0.01978805804840186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.109394</v>
+      </c>
+      <c r="H8">
+        <v>0.328182</v>
+      </c>
+      <c r="I8">
+        <v>0.09198023969986227</v>
+      </c>
+      <c r="J8">
+        <v>0.09198023969986227</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.3533536666666666</v>
-      </c>
-      <c r="H8">
-        <v>1.060061</v>
-      </c>
-      <c r="I8">
-        <v>0.2385836419362694</v>
-      </c>
-      <c r="J8">
-        <v>0.2385836419362694</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.228192</v>
+        <v>1.058783666666667</v>
       </c>
       <c r="N8">
-        <v>0.6845760000000001</v>
+        <v>3.176351</v>
       </c>
       <c r="O8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947701</v>
       </c>
       <c r="P8">
-        <v>0.1274396301998951</v>
+        <v>0.5014862149947702</v>
       </c>
       <c r="Q8">
-        <v>0.08063247990400001</v>
+        <v>0.1158245804313333</v>
       </c>
       <c r="R8">
-        <v>0.7256923191360001</v>
+        <v>1.042421223882</v>
       </c>
       <c r="S8">
-        <v>0.03040501110010236</v>
+        <v>0.04612682226139562</v>
       </c>
       <c r="T8">
-        <v>0.03040501110010236</v>
+        <v>0.04612682226139563</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3533536666666666</v>
+        <v>0.109394</v>
       </c>
       <c r="H9">
-        <v>1.060061</v>
+        <v>0.328182</v>
       </c>
       <c r="I9">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="J9">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +995,22 @@
         <v>3.010662</v>
       </c>
       <c r="O9">
-        <v>0.5604602731280042</v>
+        <v>0.475327031240749</v>
       </c>
       <c r="P9">
-        <v>0.5604602731280042</v>
+        <v>0.4753270312407492</v>
       </c>
       <c r="Q9">
-        <v>0.354609485598</v>
+        <v>0.109782786276</v>
       </c>
       <c r="R9">
-        <v>3.191485370382</v>
+        <v>0.9880450764839999</v>
       </c>
       <c r="S9">
-        <v>0.1337166531234755</v>
+        <v>0.04372069426934802</v>
       </c>
       <c r="T9">
-        <v>0.1337166531234755</v>
+        <v>0.04372069426934803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3533536666666666</v>
+        <v>0.109394</v>
       </c>
       <c r="H10">
-        <v>1.060061</v>
+        <v>0.328182</v>
       </c>
       <c r="I10">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="J10">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5588430000000001</v>
+        <v>0.048954</v>
       </c>
       <c r="N10">
-        <v>1.676529</v>
+        <v>0.146862</v>
       </c>
       <c r="O10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448066</v>
       </c>
       <c r="P10">
-        <v>0.3121000966721006</v>
+        <v>0.02318675376448067</v>
       </c>
       <c r="Q10">
-        <v>0.197469223141</v>
+        <v>0.005355273875999999</v>
       </c>
       <c r="R10">
-        <v>1.777223008269</v>
+        <v>0.04819746488399999</v>
       </c>
       <c r="S10">
-        <v>0.07446197771269153</v>
+        <v>0.002132723169118615</v>
       </c>
       <c r="T10">
-        <v>0.07446197771269153</v>
+        <v>0.002132723169118616</v>
       </c>
     </row>
   </sheetData>
